--- a/bigmac.xlsx
+++ b/bigmac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/josermf2_al_insper_edu_br/Documents/Desktop/Insper/2oSemestre/CienciaDosDados/Projeto1_CDADOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{1D49AA46-D3E4-485B-9185-38674D0F026B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="6_{330504DB-393F-45DB-9B14-91F563CA8CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EBDCD03E-A9EB-4108-AF53-31E2E740DE08}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2228,7 +2228,7 @@
     <t>noo tinha anos que não comia um big mac</t>
   </si>
   <si>
-    <t xml:space="preserve">Classificação </t>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -2650,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D426" sqref="D426"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6127,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B220" sqref="A218:B220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
